--- a/biology/Botanique/Morelle_de_Balbis/Morelle_de_Balbis.xlsx
+++ b/biology/Botanique/Morelle_de_Balbis/Morelle_de_Balbis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Solanum sisymbriifolium
 La Morelle de Balbis, Solanum sisymbriifolium, aussi appelé Tomate Litchi ou Morelle à feuille de Sisymbrium, est une espèce de plantes herbacées de la famille des Solanacées, appartenant à l'important genre Solanum, qui contient notamment la tomate, la pomme de terre, l'aubergine et la douce-amère. Elle est originaire d'Amérique centrale. En France métropolitaine, sa culture est tout à fait possible comme plante annuelle.
@@ -512,12 +524,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La Morelle de Balbis est une plante annuelle aux formes très variables, mesurant jusqu'à 1,5 m de haut. La partie aérienne de la plante est recouverte de fines épines espacées (tiges et feuilles).
 Ses feuilles sont lancéolées et entièrement lobées. Inflorescence en cyme de cinq à dix fleurs, étamines jaunes saillantes.
 Les fleurs d'un diamètre d'environ 5 cm sont blanches ou bleu-clair. Après la fécondation de la fleur, le jeune fruit est entièrement recouvert par le calice épineux qui s’est agrandi. Ensuite le fruit grossit et commence à être plus volumineux que l’enveloppe du calice.
-Le fruit est une baie globuleuse, rouge comestible à maturité protégée par des sépales épineux. La tomate Litchi pousse en grappes de 10 à 12 unités et ressemble à la tomate cerise mais sa saveur sucrée, acidulée se situe entre la cerise aigre, le litchi et la tomate[3]. Elle contient de nombreuses graines d’environ 2 mm de diamètre qui se ressèment souvent naturellement.
+Le fruit est une baie globuleuse, rouge comestible à maturité protégée par des sépales épineux. La tomate Litchi pousse en grappes de 10 à 12 unités et ressemble à la tomate cerise mais sa saveur sucrée, acidulée se situe entre la cerise aigre, le litchi et la tomate. Elle contient de nombreuses graines d’environ 2 mm de diamètre qui se ressèment souvent naturellement.
 			Les fruits à différents stades de maturité.
 			Intérieur du fruit.
 </t>
@@ -548,7 +562,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette plante est parfois utilisée comme culture-piège ou en compagnonnage pour protéger les pommes de terre du nématode à kyste de la pomme de terre. La morelle de Balbis déclenche en effet l'éclosion des kystes mais rend impossible la migration des nématodes dans les racines, entraînant leur mort et réduisant ainsi fortement les populations.
 Les tiges et feuilles contiennent de la solasodine qui rend la plante très résistante à de nombreux ravageurs et maladies, à l'exception des doryphores et des Sphinx des tomates. Elle peut également être utilisée comme plante de couverture pour isoler les animaux d'un jardin, parce qu'elle est couverte d'épines.
@@ -580,7 +596,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>La Morelle de Balbis a été décrite sous un certain nombre de noms scientifiques invalides :
 Solanum balbisii Dunal
@@ -656,9 +674,11 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon Tropicos                                           (17 août 2017)[1] (Attention liste brute contenant possiblement des synonymes) :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (17 août 2017) (Attention liste brute contenant possiblement des synonymes) :
 variété Solanum sisymbriifolium var. brevilobum Dunal
 variété Solanum sisymbriifolium var. heracleifolium Sendtn.
 variété Solanum sisymbriifolium var. macrocarpum Kuntze
